--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1871</v>
+        <v>-22.15590000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.05949999999998</v>
+        <v>-20.30179999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.28509999999998</v>
+        <v>-20.44809999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.60399999999999</v>
+        <v>-13.1989</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.60719999999999</v>
+        <v>-21.57869999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.76009999999999</v>
+        <v>-13.5984</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.19150000000001</v>
+        <v>-11.7616</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.88249999999999</v>
+        <v>-13.79289999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.1618</v>
+        <v>-12.04379999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.69159999999999</v>
+        <v>-13.5072</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.7449</v>
+        <v>-10.8187</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.00309999999999</v>
+        <v>-22.11079999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.7583</v>
+        <v>-13.1274</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.54</v>
+        <v>-13.6213</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.25240000000003</v>
+        <v>-22.3777</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.03179999999999</v>
+        <v>-21.96629999999998</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6133</v>
+        <v>-21.60749999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.184</v>
+        <v>-12.11549999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.44350000000001</v>
+        <v>-20.4601</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9456</v>
+        <v>-22.0453</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.33969999999999</v>
+        <v>-14.15579999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.18590000000001</v>
+        <v>-13.2508</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2271</v>
+        <v>-21.2108</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.2158</v>
+        <v>-13.1868</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
